--- a/Team-Data/2007-08/2-3-2007-08.xlsx
+++ b/Team-Data/2007-08/2-3-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-3-2007-08</t>
+          <t>2008-02-03</t>
         </is>
       </c>
     </row>
@@ -947,7 +1014,7 @@
         <v>30</v>
       </c>
       <c r="AK3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-3-2007-08</t>
+          <t>2008-02-03</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1193,7 @@
         <v>23</v>
       </c>
       <c r="AJ4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK4" t="n">
         <v>18</v>
@@ -1153,7 +1220,7 @@
         <v>18</v>
       </c>
       <c r="AS4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT4" t="n">
         <v>26</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-3-2007-08</t>
+          <t>2008-02-03</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-3.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-3-2007-08</t>
+          <t>2008-02-03</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>-0.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE6" t="n">
         <v>14</v>
@@ -1520,7 +1587,7 @@
         <v>11</v>
       </c>
       <c r="AT6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU6" t="n">
         <v>26</v>
@@ -1541,7 +1608,7 @@
         <v>22</v>
       </c>
       <c r="BA6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB6" t="n">
         <v>16</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-3-2007-08</t>
+          <t>2008-02-03</t>
         </is>
       </c>
     </row>
@@ -1576,37 +1643,37 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" t="n">
         <v>31</v>
       </c>
       <c r="F7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" t="n">
-        <v>0.674</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
       </c>
       <c r="I7" t="n">
-        <v>36.5</v>
+        <v>36.8</v>
       </c>
       <c r="J7" t="n">
         <v>78</v>
       </c>
       <c r="K7" t="n">
-        <v>0.468</v>
+        <v>0.471</v>
       </c>
       <c r="L7" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="M7" t="n">
         <v>16.8</v>
       </c>
       <c r="N7" t="n">
-        <v>0.349</v>
+        <v>0.353</v>
       </c>
       <c r="O7" t="n">
         <v>21.4</v>
@@ -1615,7 +1682,7 @@
         <v>26</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.822</v>
+        <v>0.823</v>
       </c>
       <c r="R7" t="n">
         <v>10.4</v>
@@ -1627,10 +1694,10 @@
         <v>42.1</v>
       </c>
       <c r="U7" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="V7" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="W7" t="n">
         <v>6</v>
@@ -1642,43 +1709,43 @@
         <v>4</v>
       </c>
       <c r="Z7" t="n">
-        <v>22</v>
+        <v>22.2</v>
       </c>
       <c r="AA7" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="AB7" t="n">
-        <v>100.1</v>
+        <v>100.9</v>
       </c>
       <c r="AC7" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="AD7" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AE7" t="n">
         <v>5</v>
       </c>
       <c r="AF7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AG7" t="n">
         <v>5</v>
       </c>
       <c r="AH7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AJ7" t="n">
         <v>27</v>
       </c>
       <c r="AK7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AL7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM7" t="n">
         <v>20</v>
@@ -1687,10 +1754,10 @@
         <v>17</v>
       </c>
       <c r="AO7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ7" t="n">
         <v>1</v>
@@ -1705,7 +1772,7 @@
         <v>15</v>
       </c>
       <c r="AU7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV7" t="n">
         <v>5</v>
@@ -1714,22 +1781,22 @@
         <v>28</v>
       </c>
       <c r="AX7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY7" t="n">
         <v>5</v>
       </c>
       <c r="AZ7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA7" t="n">
         <v>12</v>
       </c>
       <c r="BB7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BC7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-3-2007-08</t>
+          <t>2008-02-03</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>2.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE8" t="n">
         <v>11</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-3-2007-08</t>
+          <t>2008-02-03</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" t="n">
         <v>13</v>
       </c>
       <c r="G9" t="n">
-        <v>0.723</v>
+        <v>0.717</v>
       </c>
       <c r="H9" t="n">
         <v>48.1</v>
@@ -1964,61 +2031,61 @@
         <v>0.459</v>
       </c>
       <c r="L9" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="M9" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="N9" t="n">
-        <v>0.368</v>
+        <v>0.366</v>
       </c>
       <c r="O9" t="n">
-        <v>18.6</v>
+        <v>18.8</v>
       </c>
       <c r="P9" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.76</v>
+        <v>0.761</v>
       </c>
       <c r="R9" t="n">
         <v>11.5</v>
       </c>
       <c r="S9" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="T9" t="n">
-        <v>41</v>
+        <v>40.8</v>
       </c>
       <c r="U9" t="n">
         <v>22.4</v>
       </c>
       <c r="V9" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="W9" t="n">
         <v>7.5</v>
       </c>
       <c r="X9" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y9" t="n">
         <v>3.7</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="AB9" t="n">
-        <v>97.59999999999999</v>
+        <v>97.7</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2033,28 +2100,28 @@
         <v>27</v>
       </c>
       <c r="AI9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK9" t="n">
         <v>8</v>
       </c>
       <c r="AL9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM9" t="n">
         <v>23</v>
       </c>
       <c r="AN9" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AO9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ9" t="n">
         <v>13</v>
@@ -2063,7 +2130,7 @@
         <v>17</v>
       </c>
       <c r="AS9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT9" t="n">
         <v>21</v>
@@ -2075,10 +2142,10 @@
         <v>1</v>
       </c>
       <c r="AW9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX9" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AY9" t="n">
         <v>1</v>
@@ -2087,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="BA9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BB9" t="n">
         <v>15</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-3-2007-08</t>
+          <t>2008-02-03</t>
         </is>
       </c>
     </row>
@@ -2203,7 +2270,7 @@
         <v>2</v>
       </c>
       <c r="AE10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF10" t="n">
         <v>11</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-3-2007-08</t>
+          <t>2008-02-03</t>
         </is>
       </c>
     </row>
@@ -2397,7 +2464,7 @@
         <v>22</v>
       </c>
       <c r="AI11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ11" t="n">
         <v>13</v>
@@ -2439,7 +2506,7 @@
         <v>13</v>
       </c>
       <c r="AW11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX11" t="n">
         <v>4</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-3-2007-08</t>
+          <t>2008-02-03</t>
         </is>
       </c>
     </row>
@@ -2594,7 +2661,7 @@
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO12" t="n">
         <v>16</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-3-2007-08</t>
+          <t>2008-02-03</t>
         </is>
       </c>
     </row>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-3-2007-08</t>
+          <t>2008-02-03</t>
         </is>
       </c>
     </row>
@@ -2850,28 +2917,28 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E14" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F14" t="n">
         <v>16</v>
       </c>
       <c r="G14" t="n">
-        <v>0.652</v>
+        <v>0.644</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
       </c>
       <c r="I14" t="n">
-        <v>39.1</v>
+        <v>39</v>
       </c>
       <c r="J14" t="n">
-        <v>81.8</v>
+        <v>82</v>
       </c>
       <c r="K14" t="n">
-        <v>0.478</v>
+        <v>0.476</v>
       </c>
       <c r="L14" t="n">
         <v>7.3</v>
@@ -2880,37 +2947,37 @@
         <v>19.7</v>
       </c>
       <c r="N14" t="n">
-        <v>0.37</v>
+        <v>0.369</v>
       </c>
       <c r="O14" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="P14" t="n">
-        <v>28.9</v>
+        <v>29.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.75</v>
+        <v>0.749</v>
       </c>
       <c r="R14" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S14" t="n">
-        <v>33.6</v>
+        <v>33.8</v>
       </c>
       <c r="T14" t="n">
-        <v>44.5</v>
+        <v>44.7</v>
       </c>
       <c r="U14" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="V14" t="n">
         <v>15.4</v>
       </c>
       <c r="W14" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X14" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y14" t="n">
         <v>4.7</v>
@@ -2919,19 +2986,19 @@
         <v>21.4</v>
       </c>
       <c r="AA14" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.1</v>
+        <v>107.2</v>
       </c>
       <c r="AC14" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AD14" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AE14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF14" t="n">
         <v>6</v>
@@ -2940,7 +3007,7 @@
         <v>6</v>
       </c>
       <c r="AH14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI14" t="n">
         <v>4</v>
@@ -2976,19 +3043,19 @@
         <v>1</v>
       </c>
       <c r="AT14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU14" t="n">
         <v>4</v>
       </c>
       <c r="AV14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY14" t="n">
         <v>14</v>
@@ -2997,13 +3064,13 @@
         <v>16</v>
       </c>
       <c r="BA14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB14" t="n">
         <v>3</v>
       </c>
       <c r="BC14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-3-2007-08</t>
+          <t>2008-02-03</t>
         </is>
       </c>
     </row>
@@ -3146,7 +3213,7 @@
         <v>17</v>
       </c>
       <c r="AP15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ15" t="n">
         <v>20</v>
@@ -3161,7 +3228,7 @@
         <v>18</v>
       </c>
       <c r="AU15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV15" t="n">
         <v>28</v>
@@ -3170,7 +3237,7 @@
         <v>29</v>
       </c>
       <c r="AX15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY15" t="n">
         <v>15</v>
@@ -3182,7 +3249,7 @@
         <v>9</v>
       </c>
       <c r="BB15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC15" t="n">
         <v>23</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-3-2007-08</t>
+          <t>2008-02-03</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-7.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE16" t="n">
         <v>30</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-3-2007-08</t>
+          <t>2008-02-03</t>
         </is>
       </c>
     </row>
@@ -3543,7 +3610,7 @@
         <v>20</v>
       </c>
       <c r="BA17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB17" t="n">
         <v>27</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-3-2007-08</t>
+          <t>2008-02-03</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-7.3</v>
       </c>
       <c r="AD18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE18" t="n">
         <v>29</v>
@@ -3671,7 +3738,7 @@
         <v>29</v>
       </c>
       <c r="AI18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ18" t="n">
         <v>8</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-3-2007-08</t>
+          <t>2008-02-03</t>
         </is>
       </c>
     </row>
@@ -3883,7 +3950,7 @@
         <v>12</v>
       </c>
       <c r="AS19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT19" t="n">
         <v>14</v>
@@ -3907,7 +3974,7 @@
         <v>26</v>
       </c>
       <c r="BA19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB19" t="n">
         <v>29</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-3-2007-08</t>
+          <t>2008-02-03</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>6.1</v>
       </c>
       <c r="AD20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE20" t="n">
         <v>4</v>
@@ -4077,7 +4144,7 @@
         <v>3</v>
       </c>
       <c r="AW20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX20" t="n">
         <v>27</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-3-2007-08</t>
+          <t>2008-02-03</t>
         </is>
       </c>
     </row>
@@ -4235,10 +4302,10 @@
         <v>27</v>
       </c>
       <c r="AO21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ21" t="n">
         <v>26</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-3-2007-08</t>
+          <t>2008-02-03</t>
         </is>
       </c>
     </row>
@@ -4399,13 +4466,13 @@
         <v>11</v>
       </c>
       <c r="AI22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ22" t="n">
         <v>26</v>
       </c>
       <c r="AK22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL22" t="n">
         <v>2</v>
@@ -4414,7 +4481,7 @@
         <v>2</v>
       </c>
       <c r="AN22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO22" t="n">
         <v>5</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-3-2007-08</t>
+          <t>2008-02-03</t>
         </is>
       </c>
     </row>
@@ -4623,7 +4690,7 @@
         <v>20</v>
       </c>
       <c r="AW23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX23" t="n">
         <v>15</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-3-2007-08</t>
+          <t>2008-02-03</t>
         </is>
       </c>
     </row>
@@ -4751,7 +4818,7 @@
         <v>7</v>
       </c>
       <c r="AE24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF24" t="n">
         <v>3</v>
@@ -4760,7 +4827,7 @@
         <v>3</v>
       </c>
       <c r="AH24" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI24" t="n">
         <v>1</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-3-2007-08</t>
+          <t>2008-02-03</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>0.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE25" t="n">
         <v>12</v>
@@ -5005,7 +5072,7 @@
         <v>18</v>
       </c>
       <c r="BC25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-3-2007-08</t>
+          <t>2008-02-03</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-1.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE26" t="n">
         <v>17</v>
@@ -5151,7 +5218,7 @@
         <v>7</v>
       </c>
       <c r="AQ26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR26" t="n">
         <v>23</v>
@@ -5184,7 +5251,7 @@
         <v>3</v>
       </c>
       <c r="BB26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC26" t="n">
         <v>18</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-3-2007-08</t>
+          <t>2008-02-03</t>
         </is>
       </c>
     </row>
@@ -5294,16 +5361,16 @@
         <v>4.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AE27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF27" t="n">
         <v>6</v>
       </c>
       <c r="AG27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH27" t="n">
         <v>24</v>
@@ -5369,7 +5436,7 @@
         <v>19</v>
       </c>
       <c r="BC27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-3-2007-08</t>
+          <t>2008-02-03</t>
         </is>
       </c>
     </row>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-3-2007-08</t>
+          <t>2008-02-03</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>2.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE29" t="n">
         <v>15</v>
@@ -5676,7 +5743,7 @@
         <v>9</v>
       </c>
       <c r="AJ29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK29" t="n">
         <v>10</v>
@@ -5730,7 +5797,7 @@
         <v>30</v>
       </c>
       <c r="BB29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-3-2007-08</t>
+          <t>2008-02-03</t>
         </is>
       </c>
     </row>
@@ -5873,7 +5940,7 @@
         <v>14</v>
       </c>
       <c r="AO30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP30" t="n">
         <v>5</v>
@@ -5915,7 +5982,7 @@
         <v>5</v>
       </c>
       <c r="BC30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-3-2007-08</t>
+          <t>2008-02-03</t>
         </is>
       </c>
     </row>
@@ -5944,22 +6011,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E31" t="n">
         <v>24</v>
       </c>
       <c r="F31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G31" t="n">
-        <v>0.522</v>
+        <v>0.533</v>
       </c>
       <c r="H31" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I31" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J31" t="n">
         <v>81.5</v>
@@ -5968,7 +6035,7 @@
         <v>0.445</v>
       </c>
       <c r="L31" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M31" t="n">
         <v>19.4</v>
@@ -5977,31 +6044,31 @@
         <v>0.343</v>
       </c>
       <c r="O31" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="P31" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.794</v>
+        <v>0.795</v>
       </c>
       <c r="R31" t="n">
         <v>12.2</v>
       </c>
       <c r="S31" t="n">
-        <v>30.2</v>
+        <v>30.4</v>
       </c>
       <c r="T31" t="n">
-        <v>42.3</v>
+        <v>42.6</v>
       </c>
       <c r="U31" t="n">
         <v>19.2</v>
       </c>
       <c r="V31" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W31" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X31" t="n">
         <v>5.1</v>
@@ -6016,19 +6083,19 @@
         <v>20.1</v>
       </c>
       <c r="AB31" t="n">
-        <v>98.59999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="AD31" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AE31" t="n">
         <v>16</v>
       </c>
       <c r="AF31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG31" t="n">
         <v>16</v>
@@ -6037,10 +6104,10 @@
         <v>4</v>
       </c>
       <c r="AI31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK31" t="n">
         <v>21</v>
@@ -6058,16 +6125,16 @@
         <v>11</v>
       </c>
       <c r="AP31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR31" t="n">
         <v>8</v>
       </c>
       <c r="AS31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT31" t="n">
         <v>10</v>
@@ -6079,10 +6146,10 @@
         <v>9</v>
       </c>
       <c r="AW31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY31" t="n">
         <v>10</v>
@@ -6094,10 +6161,10 @@
         <v>24</v>
       </c>
       <c r="BB31" t="n">
+        <v>13</v>
+      </c>
+      <c r="BC31" t="n">
         <v>14</v>
-      </c>
-      <c r="BC31" t="n">
-        <v>15</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-3-2007-08</t>
+          <t>2008-02-03</t>
         </is>
       </c>
     </row>
